--- a/php/H1/database structuur.xlsx
+++ b/php/H1/database structuur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528cf4a6a6b19b86/github/ao2/php/H1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepij\OneDrive\github\ao2\php\H1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D21C9F-F298-4F80-992B-1C0018C522FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{40D21C9F-F298-4F80-992B-1C0018C522FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C12CA42D-477C-4183-AFDF-196FA012CCAE}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="5196" windowWidth="17280" windowHeight="9420" xr2:uid="{2283275C-2EFE-43FC-94E2-5735F2AA6178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2283275C-2EFE-43FC-94E2-5735F2AA6178}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Werknemers</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>prijs_incl</t>
-  </si>
-  <si>
-    <t>prijs_exl</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -94,6 +88,42 @@
   </si>
   <si>
     <t>artiekelen</t>
+  </si>
+  <si>
+    <t>Klanten</t>
+  </si>
+  <si>
+    <t>Voornaam</t>
+  </si>
+  <si>
+    <t>achternaam</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>huisnummer</t>
+  </si>
+  <si>
+    <t>straatnaam</t>
+  </si>
+  <si>
+    <t>klant_id</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>voorraad</t>
+  </si>
+  <si>
+    <t>inkoop_prijs</t>
+  </si>
+  <si>
+    <t>verkoop_prijs</t>
+  </si>
+  <si>
+    <t>klantnaam</t>
   </si>
 </sst>
 </file>
@@ -445,22 +475,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E145F-EAE4-414A-8353-31E5CAF1CF99}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -503,30 +537,65 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
